--- a/Mini-Project/Mini-Project-Part-2/output/BootcampOutputPart2 - Backup (1).xlsx
+++ b/Mini-Project/Mini-Project-Part-2/output/BootcampOutputPart2 - Backup (1).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brook\pandas-challenge\Mini-Project\Mini-Project-Part-2\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB374A2-7F8B-4CEB-9BBB-01055CAB74CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -508,8 +514,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +578,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -618,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,9 +664,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -684,6 +716,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,14 +909,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="67.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -894,7 +952,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -908,7 +966,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -922,7 +980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -936,7 +994,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -950,7 +1008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -964,7 +1022,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -978,7 +1036,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -992,7 +1050,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1006,7 +1064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1078,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1034,7 +1092,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1048,7 +1106,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1062,7 +1120,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1076,7 +1134,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1148,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1104,7 +1162,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1176,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1132,7 +1190,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1146,7 +1204,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1160,7 +1218,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1174,7 +1232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1246,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1202,7 +1260,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1216,7 +1274,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1230,7 +1288,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1244,7 +1302,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1258,7 +1316,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1272,7 +1330,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1286,7 +1344,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1300,7 +1358,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1314,7 +1372,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1328,7 +1386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1342,7 +1400,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1356,7 +1414,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +1428,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1384,7 +1442,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1398,7 +1456,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1412,7 +1470,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1426,7 +1484,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1440,7 +1498,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1454,7 +1512,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1468,7 +1526,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1482,7 +1540,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -1496,7 +1554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1510,7 +1568,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1524,7 +1582,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1538,7 +1596,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1552,7 +1610,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -1566,7 +1624,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -1580,7 +1638,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -1594,7 +1652,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -1608,7 +1666,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -1622,7 +1680,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1636,7 +1694,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1708,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1664,7 +1722,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -1678,7 +1736,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -1692,7 +1750,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1706,7 +1764,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -1720,7 +1778,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -1734,7 +1792,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1748,7 +1806,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1762,7 +1820,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1776,7 +1834,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1790,7 +1848,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1804,7 +1862,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1818,7 +1876,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1832,7 +1890,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1846,7 +1904,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1860,7 +1918,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1874,7 +1932,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -1888,7 +1946,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -1902,7 +1960,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -1916,7 +1974,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -1930,7 +1988,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -1944,7 +2002,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -1958,7 +2016,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -1972,7 +2030,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -1986,7 +2044,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -2000,7 +2058,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -2014,7 +2072,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -2028,7 +2086,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -2042,7 +2100,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2056,7 +2114,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -2070,7 +2128,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -2084,7 +2142,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -2098,7 +2156,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2112,7 +2170,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -2126,7 +2184,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -2140,7 +2198,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -2154,7 +2212,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -2168,7 +2226,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2182,7 +2240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -2196,7 +2254,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -2210,7 +2268,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -2224,7 +2282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -2238,7 +2296,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -2252,7 +2310,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -2266,7 +2324,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -2280,7 +2338,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -2294,7 +2352,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -2308,7 +2366,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -2322,7 +2380,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2336,7 +2394,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2350,7 +2408,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -2364,7 +2422,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -2378,7 +2436,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -2392,7 +2450,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -2406,7 +2464,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -2420,7 +2478,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -2434,7 +2492,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -2448,7 +2506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -2462,7 +2520,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -2476,7 +2534,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -2490,7 +2548,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -2504,7 +2562,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -2518,7 +2576,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -2532,7 +2590,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -2546,7 +2604,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -2560,7 +2618,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -2574,7 +2632,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -2588,7 +2646,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -2602,7 +2660,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -2616,7 +2674,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -2630,7 +2688,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -2641,7 +2699,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -2652,7 +2710,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>131</v>
       </c>
